--- a/gui/practice/sample.xlsx
+++ b/gui/practice/sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>사번</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -349,31 +349,6 @@
   <si>
     <t>경기도 성남시 분당구 분당동 3474</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경관과</t>
-  </si>
-  <si>
-    <t>치수과</t>
-  </si>
-  <si>
-    <t>정책과</t>
-  </si>
-  <si>
-    <t>경제과</t>
-  </si>
-  <si>
-    <t>교통과</t>
-  </si>
-  <si>
-    <t>도시과</t>
-  </si>
-  <si>
-    <t>시설과</t>
-  </si>
-  <si>
-    <t>관리과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -383,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000\-0000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,14 +399,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -447,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -464,21 +431,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -488,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,9 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,14 +743,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B37"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1430,46 +1380,6 @@
         <v>34299</v>
       </c>
       <c r="H26" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
